--- a/01files/智能家居串口协议.xlsx
+++ b/01files/智能家居串口协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="4" r:id="rId1"/>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2117,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2164,7 +2164,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>32</v>
@@ -2184,7 +2184,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>35</v>
@@ -2204,7 +2204,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>33</v>
@@ -2224,7 +2224,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>36</v>
@@ -2244,7 +2244,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>34</v>
@@ -2264,7 +2264,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>37</v>
@@ -2284,7 +2284,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>40</v>
@@ -2304,7 +2304,7 @@
         <v>85</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>42</v>
@@ -2324,7 +2324,7 @@
         <v>86</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>80</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>82</v>
@@ -2364,7 +2364,7 @@
         <v>86</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>79</v>
@@ -2386,7 +2386,7 @@
         <v>85</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>48</v>
@@ -2406,7 +2406,7 @@
         <v>85</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>50</v>
@@ -2426,7 +2426,7 @@
         <v>86</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>83</v>
@@ -2446,7 +2446,7 @@
         <v>85</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>52</v>
@@ -2468,7 +2468,7 @@
         <v>86</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>75</v>
@@ -2488,7 +2488,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>64</v>
@@ -2508,7 +2508,7 @@
         <v>86</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>56</v>
@@ -2528,7 +2528,7 @@
         <v>85</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>65</v>
@@ -2548,7 +2548,7 @@
         <v>86</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>57</v>
@@ -2568,7 +2568,7 @@
         <v>86</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>67</v>
@@ -2590,7 +2590,7 @@
         <v>85</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>77</v>
@@ -2610,7 +2610,7 @@
         <v>85</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>24</v>
@@ -2630,7 +2630,7 @@
         <v>86</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>73</v>

--- a/01files/智能家居串口协议.xlsx
+++ b/01files/智能家居串口协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="串口更新" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
   <si>
     <t>命令1</t>
   </si>
@@ -383,10 +383,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收到服务器发送显示在LED显示屏反馈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0x0A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,10 +404,6 @@
   </si>
   <si>
     <t>0x04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x56</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -552,12 +544,152 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openlight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closelight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openlock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openfan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closefan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendmsg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[N]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送信息显示在LED显示屏上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebottom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>command</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reboot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAA:表示灯开状态 0xBB：表示灯关状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAA:表示风扇开状态 0xBB：表示风扇关状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与网页对接协议修改，修改底层反馈协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除查询温湿度，添加灯的反馈和风扇的反馈状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0] = 0xAA/0xBB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到服务器发送显示在LED显示屏反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,11 +811,21 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -722,7 +864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -892,11 +1034,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -988,23 +1156,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1023,6 +1197,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,6 +1286,75 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="3061607"/>
+          <a:ext cx="1238250" cy="530678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>黄色区表示不需要指令</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1371,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1417,6 +1693,21 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
     </row>
+    <row r="3" spans="1:5" s="55" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="52">
+        <v>43558</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="53"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,9 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1453,10 +1742,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1482,10 +1771,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>7</v>
@@ -1502,31 +1791,31 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
+      <c r="A4" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1556,8 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1604,7 +1894,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>32</v>
@@ -1621,10 +1911,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>35</v>
@@ -1644,7 +1934,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>33</v>
@@ -1661,10 +1951,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>36</v>
@@ -1684,7 +1974,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>34</v>
@@ -1701,10 +1991,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>37</v>
@@ -1724,7 +2014,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>40</v>
@@ -1744,7 +2034,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>42</v>
@@ -1761,21 +2051,23 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="26" t="s">
+        <v>123</v>
+      </c>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
     </row>
@@ -1784,10 +2076,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>25</v>
@@ -1801,13 +2093,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>46</v>
@@ -1826,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>48</v>
@@ -1846,7 +2138,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>50</v>
@@ -1863,21 +2155,23 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>25</v>
+        <v>127</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>128</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="26"/>
+        <v>82</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>124</v>
+      </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
@@ -1886,7 +2180,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>52</v>
@@ -1905,10 +2199,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>75</v>
@@ -1917,98 +2211,98 @@
         <v>25</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="B20" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>67</v>
@@ -2030,16 +2324,16 @@
         <v>28</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -2050,7 +2344,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>24</v>
@@ -2067,10 +2361,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>73</v>
@@ -2086,588 +2380,288 @@
       <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="D26" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="41.875" customWidth="1"/>
-    <col min="5" max="5" width="45.75" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="1" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="45.75" customWidth="1"/>
+    <col min="7" max="7" width="35.875" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="D9" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01files/智能家居串口协议.xlsx
+++ b/01files/智能家居串口协议.xlsx
@@ -1180,6 +1180,33 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1202,33 +1229,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1693,20 +1693,20 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" s="55" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="52">
+    <row r="3" spans="1:5" s="47" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="44">
         <v>43558</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1791,31 +1791,31 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1845,9 +1845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2218,84 +2218,84 @@
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
@@ -2462,7 +2462,7 @@
       <c r="A2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="54" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -2485,7 +2485,7 @@
       <c r="A3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="22" t="s">
         <v>98</v>
       </c>
@@ -2529,7 +2529,7 @@
       <c r="A5" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="54" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -2552,7 +2552,7 @@
       <c r="A6" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="22" t="s">
         <v>103</v>
       </c>

--- a/01files/智能家居串口协议.xlsx
+++ b/01files/智能家居串口协议.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="133">
   <si>
     <t>命令1</t>
   </si>
@@ -300,50 +300,6 @@
   </si>
   <si>
     <t>数据区为发送的信息（仅为英文字母）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA[0] = 温度高位  DATA[1] = 温度低位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送温度给服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATA[0] = 湿度高位  DATA[1] = 湿度低位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送湿度给服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询底层湿度值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询底层温度值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -641,39 +597,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAA:表示灯开状态 0xBB：表示灯关状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xAA:表示风扇开状态 0xBB：表示风扇关状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与网页对接协议修改，修改底层反馈协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除查询温湿度，添加灯的反馈和风扇的反馈状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA[0] = 0xAA/0xBB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到服务器发送显示在LED显示屏反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatebottom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级板子程序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>open</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>close</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>light</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAA:表示灯开状态 0xBB：表示灯关状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xAA:表示风扇开状态 0xBB：表示风扇关状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与网页对接协议修改，修改底层反馈协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除查询温湿度，添加灯的反馈和风扇的反馈状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x56</t>
+    <t>开锁指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -681,7 +665,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收到服务器发送显示在LED显示屏反馈</t>
+    <t>0x00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向服务器获取实时时钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date[0..11] = 实时时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回馈底层实时时钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10分钟发一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回馈年月日 时分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +701,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,14 +835,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1064,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,21 +1184,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,6 +1195,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1286,75 +1287,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12573000" y="3061607"/>
-          <a:ext cx="1238250" cy="530678"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>黄色区表示不需要指令</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1693,20 +1625,20 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="1:5" s="47" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="44">
+    <row r="3" spans="1:5" s="42" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="39">
         <v>43558</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="45"/>
+      <c r="C3" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1742,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1771,10 +1703,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>7</v>
@@ -1791,31 +1723,31 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="A4" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1843,11 +1775,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1894,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>32</v>
@@ -1911,10 +1843,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>35</v>
@@ -1934,7 +1866,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>33</v>
@@ -1951,10 +1883,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>36</v>
@@ -1974,7 +1906,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>34</v>
@@ -1991,10 +1923,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>37</v>
@@ -2010,82 +1942,84 @@
       <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="A8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E8" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="E10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -2093,22 +2027,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>45</v>
+        <v>124</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
@@ -2118,303 +2052,264 @@
         <v>28</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E15" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>25</v>
+        <v>115</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="26"/>
+        <v>71</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="D23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="E24" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2434,16 +2329,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>15</v>
@@ -2460,19 +2355,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>122</v>
+        <v>72</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>110</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>41</v>
@@ -2483,17 +2378,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="B3" s="54"/>
       <c r="C3" s="22" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>43</v>
@@ -2504,22 +2399,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
@@ -2527,19 +2422,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>113</v>
+        <v>72</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>49</v>
@@ -2550,17 +2445,17 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="B6" s="54"/>
       <c r="C6" s="22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>51</v>
@@ -2571,22 +2466,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>55</v>
@@ -2596,66 +2491,89 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="A9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="A10" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2664,5 +2582,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>